--- a/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_114_.xlsx
+++ b/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_114_.xlsx
@@ -564,7 +564,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gene</t>
+          <t>Simulation</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[5.077682636359738, 5.486288227383241]</t>
+          <t>[5.073607682055396, 5.490363181687583]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -617,14 +617,14 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.4031236198977286, 0.6814946713979335]</t>
+          <t>[0.4032160073596778, 0.6814022839359843]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>5.750540044147101e-10</v>
+        <v>5.650608869700591e-10</v>
       </c>
       <c r="V2" t="n">
-        <v>5.750540044147101e-10</v>
+        <v>5.650608869700591e-10</v>
       </c>
       <c r="W2" t="n">
         <v>6.063163163163367</v>
